--- a/WEBSoLienLacDienTu/WEBSoLienLacDienTu/Content/Upload/Book1.xlsx
+++ b/WEBSoLienLacDienTu/WEBSoLienLacDienTu/Content/Upload/Book1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unfor\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF18803E-780F-41ED-8C49-57ECF20B3BD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15408" windowHeight="9312"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{1859CD75-98FB-4EEA-AAFD-28C0B620F1C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,47 +27,47 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Expectation</t>
-  </si>
-  <si>
-    <t>Acknowledge emails within 2 hours</t>
-  </si>
-  <si>
-    <t>Be prepared for Daily Stand-up at 10:15 am</t>
-  </si>
-  <si>
-    <t>Commit code updates to repository daily</t>
-  </si>
-  <si>
-    <t>Ensuring the timely delivery of work as per quality standards.</t>
-  </si>
-  <si>
-    <t>Every update to production server must be signed off by QA</t>
-  </si>
-  <si>
-    <t>Follow variable naming conventions &amp; guidelines for the particular platform.</t>
-  </si>
-  <si>
-    <t>Have 90% understanding of the project through SRS doc before commencing work.</t>
-  </si>
-  <si>
-    <t>Maintain politeness while talking to other colleagues</t>
-  </si>
-  <si>
-    <t>No use of social media either with phone or desktop.</t>
-  </si>
-  <si>
-    <t>Provide Developer Sign Off before handing over builds to QA</t>
+    <t>Câu Hỏi</t>
+  </si>
+  <si>
+    <t>Độ Khó</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Câu Đúng</t>
+  </si>
+  <si>
+    <t>Giải Thích</t>
+  </si>
+  <si>
+    <t>phong ten la</t>
+  </si>
+  <si>
+    <t>vu hoang phong</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>phong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,33 +75,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Serif"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Serif"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -108,33 +92,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFEDEDED"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFEDEDED"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFEDEDED"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFEDEDED"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -169,7 +132,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -181,7 +144,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -228,6 +191,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -263,6 +243,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -414,108 +411,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48522E7-B23D-4C72-AFAB-ED68EFA0CD92}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.2" thickBot="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1">
-      <c r="A2" s="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="70.2" thickBot="1">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="F2">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="58.8" thickBot="1">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="70.2" thickBot="1">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="81.599999999999994" thickBot="1">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="104.4" thickBot="1">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="104.4" thickBot="1">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="70.2" thickBot="1">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="70.2" thickBot="1">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>